--- a/Device Interaction/Automation/Cameras.xlsx
+++ b/Device Interaction/Automation/Cameras.xlsx
@@ -74,7 +74,7 @@
     <t>Same app</t>
   </si>
   <si>
-    <t>timeout</t>
+    <t>no error</t>
   </si>
   <si>
     <t>Time:</t>
@@ -99,9 +99,6 @@
     </font>
     <font/>
     <font>
-      <b/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -110,8 +107,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,24 +132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
     <border>
       <right/>
     </border>
@@ -182,37 +171,37 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -221,7 +210,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -323,7 +312,6 @@
     <row r="14">
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="4"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15">
